--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1738.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1738.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7137093477812725</v>
+        <v>1.05120575428009</v>
       </c>
       <c r="B1">
-        <v>1.544754757061104</v>
+        <v>1.176511883735657</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.112563473159415</v>
+        <v>1.650520205497742</v>
       </c>
       <c r="E1">
-        <v>1.435883306406236</v>
+        <v>0.9961546063423157</v>
       </c>
     </row>
   </sheetData>
